--- a/21/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/21/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,23 +430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>367977</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Botsford Group</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://sour-plumber.com</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/21/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/21/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -432,13 +432,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>768233</v>
+        <v>760745</v>
       </c>
       <c r="B3" t="str">
-        <v>Stoltenberg - Jaskolski</v>
+        <v>Marquardt LLC</v>
       </c>
       <c r="C3" t="str">
-        <v>https://outrageous-whale.net/</v>
+        <v>https://sorrowful-toothbrush.info</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>

--- a/21/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/21/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,21 +432,35 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>760745</v>
+        <v>810782</v>
       </c>
       <c r="B3" t="str">
-        <v>Marquardt LLC</v>
+        <v>O'Reilly, Pfeffer and Parisian</v>
       </c>
       <c r="C3" t="str">
-        <v>https://sorrowful-toothbrush.info</v>
+        <v>https://yellow-deer.org</v>
       </c>
       <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>411548</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Price - Schoen</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://grumpy-yogurt.org</v>
+      </c>
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>